--- a/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>El Espectador</t>
+  </si>
+  <si>
+    <t>Aviso La Vorágine</t>
+  </si>
+  <si>
+    <t>http://www.bibliotecanacional.gov.co/sites/default/files/u8165/imagenes/Exposiciones_virtuales/voragine/Campa__a_en_el_Nuevo_Tiempo__Baja_%20%281%29.jpg</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <t>IMG10</t>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,6 +848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1358,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1544,6 +1562,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,20 +1673,20 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -3644,14 +3677,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="10">
           <cell r="A10" t="str">
             <v>4. Finalmente, y separado por un guión bajo también, el código del país: SIEMPRE será CO, para Colombia.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="3">
           <cell r="A3" t="str">
             <v>M3A</v>
@@ -5485,18 +5518,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="57" zoomScaleNormal="57" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
@@ -5527,14 +5560,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="90"/>
+      <c r="F2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
@@ -5544,14 +5577,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="91">
         <v>9</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79">
+      <c r="D3" s="92"/>
+      <c r="F3" s="84">
         <v>42067</v>
       </c>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
@@ -5561,10 +5594,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>56</v>
@@ -5582,10 +5615,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -5636,12 +5669,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -5650,7 +5683,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
@@ -5685,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -5768,7 +5801,7 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG03","")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="77" t="s">
         <v>159</v>
       </c>
       <c r="C12" s="25" t="str">
@@ -5782,7 +5815,7 @@
         <v>149</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" ref="F12:F16" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F12:F17" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
@@ -5847,14 +5880,14 @@
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
-        <f t="shared" ref="A14:A30" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
+        <f t="shared" ref="A14:A31" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="78" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="25" t="str">
-        <f t="shared" ref="C14:C17" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C14:C18" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -5872,7 +5905,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" ref="H14:H74" si="3">IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H14:H75" si="3">IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
@@ -5895,7 +5928,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="73" t="str">
-        <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>C14</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -5927,16 +5960,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),"IMG07","")</f>
-        <v>IMG07</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>168</v>
+    <row r="16" spans="1:16" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>189</v>
       </c>
       <c r="C16" s="73" t="str">
-        <f>IF(OR(B16&lt;&gt;[6]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -5946,11 +5978,11 @@
         <v>149</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F16" si="4">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG07_small</v>
       </c>
       <c r="G16" s="74" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H16" s="74" t="str">
@@ -5958,76 +5990,75 @@
         <v>CS_09_04_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="74" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="J16" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="115"/>
+    </row>
+    <row r="17" spans="1:11" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),"IMG08","")</f>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="25" t="str">
-        <f t="shared" si="2"/>
+      <c r="B17" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="73" t="str">
+        <f>IF(OR(B17&lt;&gt;[6]Ayuda!A11,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>147</v>
+      <c r="E17" s="74" t="s">
+        <v>149</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" ref="F17:F74" si="4">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v>CS_09_04_CO_IMG08_small</v>
       </c>
-      <c r="G17" s="14" t="str">
-        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G17" s="74" t="str">
+        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H17" s="74" t="str">
+        <f>IF(I17&lt;&gt;"",IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG08_zoom</v>
       </c>
-      <c r="I17" s="14" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I17" s="74" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="B18" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="14" t="s">
         <v>147</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F18:F75" si="5">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
@@ -6035,69 +6066,69 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" ref="H18" si="5">IF(I18&lt;&gt;"",IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v>CS_09_04_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>CS_09_04_CO_IMG10_small</v>
+      </c>
+      <c r="G19" s="14" t="str">
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H19" s="14" t="str">
+        <f t="shared" ref="H19" si="6">IF(I19&lt;&gt;"",IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG10_zoom</v>
+      </c>
+      <c r="I19" s="14" t="str">
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J19" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="111" t="s">
+      <c r="K19" s="80" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="76" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),"IMG10","")</f>
-        <v>IMG10</v>
-      </c>
-      <c r="B19" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="73" t="str">
-        <f>IF(OR(B19&lt;&gt;[7]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_09_04_CO_IMG10_small</v>
-      </c>
-      <c r="G19" s="74" t="str">
-        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H19" s="74" t="str">
-        <f>IF(I19&lt;&gt;"",IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_09_04_CO_IMG10_zoom</v>
-      </c>
-      <c r="I19" s="74" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="75"/>
-    </row>
-    <row r="20" spans="1:11" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="76" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),"IMG11","")</f>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>177</v>
+      <c r="B20" s="81" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="73" t="str">
-        <f>IF(OR(B20&lt;&gt;[8]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B20&lt;&gt;[7]Ayuda!A14,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6107,11 +6138,11 @@
         <v>149</v>
       </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CS_09_04_CO_IMG11_small</v>
       </c>
       <c r="G20" s="74" t="str">
-        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H20" s="74" t="str">
@@ -6119,26 +6150,24 @@
         <v>CS_09_04_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="74" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="76" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="1:11" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),"IMG12","")</f>
         <v>IMG12</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" s="73" t="str">
-        <f>IF(OR(B21&lt;&gt;[9]Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B21&lt;&gt;[8]Ayuda!A15,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -6148,11 +6177,11 @@
         <v>149</v>
       </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CS_09_04_CO_IMG12_small</v>
       </c>
       <c r="G21" s="74" t="str">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H21" s="74" t="str">
@@ -6160,26 +6189,26 @@
         <v>CS_09_04_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="74" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K21" s="75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="76" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),"IMG13","")</f>
         <v>IMG13</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C22" s="73" t="str">
-        <f>IF(OR(B22&lt;&gt;[10]Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B22&lt;&gt;[9]Ayuda!A16,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -6189,11 +6218,11 @@
         <v>149</v>
       </c>
       <c r="F22" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CS_09_04_CO_IMG13_small</v>
       </c>
       <c r="G22" s="74" t="str">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H22" s="74" t="str">
@@ -6201,95 +6230,108 @@
         <v>CS_09_04_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="74" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K22" s="75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),"IMG14","")</f>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="74" t="s">
+      <c r="B23" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="73" t="str">
+        <f>IF(OR(B23&lt;&gt;[10]Ayuda!A17,J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="74" t="s">
         <v>149</v>
       </c>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CS_09_04_CO_IMG14_small</v>
       </c>
-      <c r="G23" s="14" t="str">
-        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G23" s="74" t="str">
+        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H23" s="74" t="str">
+        <f>IF(I23&lt;&gt;"",IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG14_zoom</v>
       </c>
-      <c r="I23" s="14" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I23" s="74" t="str">
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="75" t="s">
-        <v>186</v>
+      <c r="J23" s="74" t="s">
+        <v>184</v>
       </c>
       <c r="K23" s="75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="str">
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),"IMG15","")</f>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>CS_09_04_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CS_09_04_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
@@ -6305,7 +6347,7 @@
         <v/>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
@@ -6317,7 +6359,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G26" s="14" t="str">
@@ -6345,7 +6387,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -6360,7 +6402,7 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6368,12 +6410,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -6396,12 +6438,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -6429,7 +6471,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -6448,13 +6490,16 @@
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -6479,7 +6524,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -6504,7 +6549,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -6529,7 +6574,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -6549,12 +6594,12 @@
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -6569,17 +6614,17 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -6599,12 +6644,12 @@
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -6619,17 +6664,17 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -6644,17 +6689,17 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -6669,7 +6714,7 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6679,7 +6724,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -6704,7 +6749,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -6729,7 +6774,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -6754,7 +6799,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -6779,7 +6824,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -6804,7 +6849,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -6829,7 +6874,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -6854,7 +6899,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -6879,7 +6924,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -6904,7 +6949,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -6929,7 +6974,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -6954,7 +6999,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -6979,7 +7024,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -7004,7 +7049,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -7029,7 +7074,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -7054,7 +7099,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -7079,7 +7124,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -7104,7 +7149,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -7129,7 +7174,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -7154,7 +7199,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -7179,7 +7224,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -7204,7 +7249,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -7224,12 +7269,12 @@
     </row>
     <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -7254,7 +7299,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -7279,7 +7324,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -7304,7 +7349,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -7329,7 +7374,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -7354,7 +7399,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -7379,7 +7424,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -7404,7 +7449,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -7429,7 +7474,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -7454,7 +7499,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -7479,7 +7524,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -7504,7 +7549,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -7529,7 +7574,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -7554,7 +7599,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -7562,7 +7607,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="7">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -7579,7 +7624,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F76:F109" si="7">IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I76="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -7587,7 +7632,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H76:H109" si="8">IF(I76&lt;&gt;"",IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -7604,7 +7649,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -7612,7 +7657,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -7629,7 +7674,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -7637,7 +7682,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -7654,7 +7699,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -7662,7 +7707,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -7679,7 +7724,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -7687,7 +7732,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -7704,7 +7749,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -7712,7 +7757,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -7729,7 +7774,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -7737,7 +7782,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -7754,7 +7799,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -7762,7 +7807,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -7779,7 +7824,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -7787,7 +7832,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -7804,7 +7849,7 @@
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -7812,7 +7857,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -7829,7 +7874,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -7837,7 +7882,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -7854,7 +7899,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -7862,7 +7907,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -7879,7 +7924,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -7887,7 +7932,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -7904,7 +7949,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -7912,7 +7957,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -7929,7 +7974,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -7937,7 +7982,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -7954,7 +7999,7 @@
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -7962,7 +8007,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -7979,7 +8024,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -7987,7 +8032,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -8004,7 +8049,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -8012,7 +8057,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -8029,7 +8074,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -8037,7 +8082,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -8054,7 +8099,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -8062,7 +8107,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -8079,7 +8124,7 @@
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -8087,7 +8132,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -8104,7 +8149,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -8112,7 +8157,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -8129,7 +8174,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -8137,7 +8182,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -8154,7 +8199,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -8162,7 +8207,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -8179,7 +8224,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -8187,7 +8232,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -8204,7 +8249,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -8212,7 +8257,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -8229,7 +8274,7 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -8237,7 +8282,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -8254,7 +8299,7 @@
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -8262,7 +8307,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -8279,7 +8324,7 @@
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -8287,7 +8332,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -8304,7 +8349,7 @@
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -8312,7 +8357,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -8329,7 +8374,7 @@
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -8337,7 +8382,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -8354,7 +8399,7 @@
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -8362,7 +8407,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -8379,7 +8424,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -8387,7 +8432,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
@@ -8396,6 +8441,31 @@
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G109" s="14" t="str">
+        <f>IF(F109&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H109" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I109" s="14" t="str">
+        <f>IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8437,30 +8507,31 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E109">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D109">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" location="/media/File:Rafael_N%C3%BA%C3%B1ez_Moledo.jpg"/>
-    <hyperlink ref="B11"/>
+    <hyperlink ref="B11" display="https://www.google.com.co/search?q=ni%C3%B1os+guerra+de+los+mil+dias&amp;biw=1366&amp;bih=644&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ei=jlpBVcbyI4uhgwT2l4DoAQ&amp;ved=0CAYQ_AUoAQ&amp;dpr=1#imgrc=G35kKyY9FApMYM%253A%3BXTXOQz4vMVKdCM%3Bhttp%253A%252F%252Fwww.banrepcultural.org%252Fsite"/>
     <hyperlink ref="B12" r:id="rId2"/>
     <hyperlink ref="B13" r:id="rId3"/>
     <hyperlink ref="B14" r:id="rId4"/>
     <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6" display="http://upload.wikimedia.org/wikipedia/commons/7/73/Guerra_peru1_1932_d.jpg"/>
-    <hyperlink ref="B17" r:id="rId7"/>
-    <hyperlink ref="B18" r:id="rId8"/>
-    <hyperlink ref="B19"/>
-    <hyperlink ref="B20" r:id="rId9"/>
-    <hyperlink ref="B22" r:id="rId10"/>
-    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId6" display="http://upload.wikimedia.org/wikipedia/commons/7/73/Guerra_peru1_1932_d.jpg"/>
+    <hyperlink ref="B18" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" display="https://www.google.com.co/search?q=mariano+ospina+perez&amp;biw=911&amp;bih=429&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ei=aIFBVeynD4bDggTEtIGoCQ&amp;ved=0CAYQ_AUoAQ&amp;dpr=1#tbs=sur:f&amp;tbm=isch&amp;q=jorge+eliecer&amp;imgrc=tt2gL2X_MKVCqM%253A%3BDLS0NOTrkvDPmM%3Bhttp%253A%252F%252Fupload.wik"/>
+    <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B23" r:id="rId10"/>
+    <hyperlink ref="B24" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12" display="http://www.bibliotecanacional.gov.co/sites/default/files/u8165/imagenes/Exposiciones_virtuales/voragine/Campa__a_en_el_Nuevo_Tiempo__Baja_ %281%29.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8490,25 +8561,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8516,11 +8587,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>19</v>
@@ -8571,11 +8642,11 @@
       <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>23</v>
@@ -8620,12 +8691,12 @@
       <c r="C7" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="30" t="s">
         <v>25</v>
       </c>
@@ -8719,14 +8790,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="I13" s="30" t="s">
         <v>34</v>
       </c>
@@ -8759,12 +8830,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -8804,12 +8875,12 @@
       <c r="C17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -8825,12 +8896,12 @@
       <c r="C18" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -9221,41 +9292,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="49" t="s">
         <v>66</v>
       </c>

--- a/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="214">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -656,6 +656,72 @@
   </si>
   <si>
     <t>IMG10</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/node/81507</t>
+  </si>
+  <si>
+    <t>Carlos E. restrepo</t>
+  </si>
+  <si>
+    <t>Blaa</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>Miguel Abadía Méndez</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/blaavirtual/biografias/abadmigu.htm</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <t>IMG11</t>
+  </si>
+  <si>
+    <t>IMG12</t>
+  </si>
+  <si>
+    <t>http://www.google.com.co/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;frm=1&amp;source=images&amp;cd=&amp;ved=0CAUQjhw&amp;url=http%3A%2F%2Fwww.senalmemoria.gov.co%2Farticulos%2Fpresidente-eduardo-santos-inaugura-la-radiodifusora-nacional-de-colombia&amp;ei=JSSXVaeiDoq9sAWliIGADw&amp;bvm=bv.96952980,d.aWw&amp;psig=AFQjCNHYrAQ-Ua3VlRDJErCsjW5YIoF6XQ&amp;ust=1436054948239654</t>
+  </si>
+  <si>
+    <t>Eduardo Santos_radiodifusora</t>
+  </si>
+  <si>
+    <t>IMG13</t>
+  </si>
+  <si>
+    <t>http://admin.banrepcultural.org/blaavirtual/revistas/credencial/enero2006/cuartelazo.htm</t>
+  </si>
+  <si>
+    <t>Golpe de Pasto</t>
+  </si>
+  <si>
+    <t>IMG14</t>
+  </si>
+  <si>
+    <t>IMG15</t>
+  </si>
+  <si>
+    <t>IMG16</t>
+  </si>
+  <si>
+    <t>IMG17</t>
+  </si>
+  <si>
+    <t>IMG18</t>
+  </si>
+  <si>
+    <t>IMG19</t>
   </si>
 </sst>
 </file>
@@ -804,7 +870,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1430,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1577,6 +1649,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1673,20 +1778,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2140,8 +2236,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2162,7 +2262,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2183,7 +2285,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2227,7 +2331,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2248,7 +2354,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2269,7 +2377,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2287,8 +2397,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2309,7 +2423,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2330,7 +2446,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2345,11 +2463,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2364,11 +2486,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2386,14 +2512,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2406,13 +2538,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2427,7 +2563,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3369,14 +3507,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="8">
           <cell r="A8" t="str">
             <v>2. Luego, separado por un guión bajo, las siglas que corresponden al grado, SIEMPRE con dos dígitos: 03 para tercero de primaria, 05 para quinto, 10 para décimo y 11 para undécimo.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="3">
           <cell r="A3" t="str">
             <v>M3A</v>
@@ -5518,11 +5656,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5560,14 +5698,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="F2" s="82" t="s">
+      <c r="D2" s="101"/>
+      <c r="F2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
@@ -5577,14 +5715,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="102">
         <v>9</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="F3" s="84">
+      <c r="D3" s="103"/>
+      <c r="F3" s="95">
         <v>42067</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
@@ -5594,10 +5732,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>56</v>
@@ -5615,10 +5753,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -5669,12 +5807,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -5815,7 +5953,7 @@
         <v>149</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" ref="F12:F17" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F12:F19" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
@@ -5878,136 +6016,132 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
-        <f t="shared" ref="A14:A31" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
-        <v>IMG05</v>
-      </c>
-      <c r="B14" s="78" t="s">
+    <row r="14" spans="1:16" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="90" t="str">
+        <f t="shared" ref="F14" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_04_CO_IMG05_small</v>
+      </c>
+      <c r="G14" s="90" t="str">
+        <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[4]Definición técnica de imagenes'!$E$15,'[4]Definición técnica de imagenes'!$F$13)),'[4]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H14" s="90" t="str">
+        <f>IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG05_zoom</v>
+      </c>
+      <c r="I14" s="90" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J14" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="25" t="str">
-        <f t="shared" ref="C14:C18" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CS_09_04_CO_IMG05_small</v>
-      </c>
-      <c r="G14" s="14" t="str">
-        <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H14" s="14" t="str">
-        <f t="shared" ref="H14:H75" si="3">IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_09_04_CO_IMG05_zoom</v>
-      </c>
-      <c r="I14" s="14" t="str">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),"IMG06","")</f>
-        <v>IMG06</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="73" t="str">
-        <f>C14</f>
+      <c r="C15" s="25" t="str">
+        <f t="shared" ref="C15:C20" si="2">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="14" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>CS_09_04_CO_IMG06_small</v>
       </c>
-      <c r="G15" s="74" t="str">
-        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G15" s="14" t="str">
+        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H15" s="74" t="str">
-        <f>IF(I15&lt;&gt;"",IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H15" s="14" t="str">
+        <f t="shared" ref="H15:H79" si="3">IF(I15&lt;&gt;"",IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG06_zoom</v>
       </c>
-      <c r="I15" s="74" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I15" s="14" t="str">
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="75" t="s">
+      <c r="J15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+    <row r="16" spans="1:16" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="117" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="73" t="str">
-        <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="B16" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="89" t="str">
+        <f t="shared" ref="C16" si="4">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="14" t="str">
-        <f t="shared" ref="F16" si="4">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F16" s="90" t="str">
+        <f t="shared" ref="F16" si="5">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG07_small</v>
       </c>
-      <c r="G16" s="74" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G16" s="90" t="str">
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H16" s="74" t="str">
-        <f>IF(I16&lt;&gt;"",IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H16" s="90" t="str">
+        <f t="shared" ref="H16" si="6">IF(I16&lt;&gt;"",IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG07_zoom</v>
       </c>
-      <c r="I16" s="74" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I16" s="90" t="str">
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="K16" s="115"/>
-    </row>
-    <row r="17" spans="1:11" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),"IMG08","")</f>
-        <v>IMG08</v>
+      <c r="J16" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="91"/>
+    </row>
+    <row r="17" spans="1:11" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>199</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C17" s="73" t="str">
-        <f>IF(OR(B17&lt;&gt;[6]Ayuda!A11,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>C15</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -6021,7 +6155,7 @@
         <v>CS_09_04_CO_IMG08_small</v>
       </c>
       <c r="G17" s="74" t="str">
-        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H17" s="74" t="str">
@@ -6029,413 +6163,451 @@
         <v>CS_09_04_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="74" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="73" t="str">
+        <f>IF(OR(B17&lt;&gt;[5]Ayuda!A10,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" ref="F18" si="7">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_04_CO_IMG09_small</v>
+      </c>
+      <c r="G18" s="74" t="str">
+        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H18" s="74" t="str">
+        <f>IF(I18&lt;&gt;"",IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG09_zoom</v>
+      </c>
+      <c r="I18" s="74" t="str">
+        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="84"/>
+    </row>
+    <row r="19" spans="1:11" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="73" t="str">
+        <f>IF(OR(B19&lt;&gt;[6]Ayuda!A11,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CS_09_04_CO_IMG10_small</v>
+      </c>
+      <c r="G19" s="74" t="str">
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H19" s="74" t="str">
+        <f>IF(I19&lt;&gt;"",IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG10_zoom</v>
+      </c>
+      <c r="I19" s="74" t="str">
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J19" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K19" s="75" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>IMG09</v>
-      </c>
-      <c r="B18" s="78" t="s">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C20" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="14" t="str">
-        <f t="shared" ref="F18:F75" si="5">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_09_04_CO_IMG09_small</v>
-      </c>
-      <c r="G18" s="14" t="str">
-        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H18" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>CS_09_04_CO_IMG09_zoom</v>
-      </c>
-      <c r="I18" s="14" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_09_04_CO_IMG10_small</v>
-      </c>
-      <c r="G19" s="14" t="str">
-        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H19" s="14" t="str">
-        <f t="shared" ref="H19" si="6">IF(I19&lt;&gt;"",IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_09_04_CO_IMG10_zoom</v>
-      </c>
-      <c r="I19" s="14" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="76" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),"IMG11","")</f>
-        <v>IMG11</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="73" t="str">
-        <f>IF(OR(B20&lt;&gt;[7]Ayuda!A14,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
       <c r="D20" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="74" t="s">
-        <v>149</v>
+      <c r="E20" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F20:F79" si="8">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I20="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG11_small</v>
       </c>
-      <c r="G20" s="74" t="str">
-        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G20" s="14" t="str">
+        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H20" s="74" t="str">
-        <f>IF(I20&lt;&gt;"",IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H20" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>CS_09_04_CO_IMG11_zoom</v>
       </c>
-      <c r="I20" s="74" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I20" s="14" t="str">
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="75"/>
-    </row>
-    <row r="21" spans="1:11" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),"IMG12","")</f>
-        <v>IMG12</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="73" t="str">
-        <f>IF(OR(B21&lt;&gt;[8]Ayuda!A15,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="J20" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="92" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="89" t="str">
+        <f t="shared" ref="C21" si="9">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="14" t="str">
-        <f t="shared" si="5"/>
+      <c r="E21" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="90" t="str">
+        <f t="shared" ref="F21" si="10">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG12_small</v>
       </c>
-      <c r="G21" s="74" t="str">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G21" s="90" t="str">
+        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H21" s="74" t="str">
-        <f>IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H21" s="90" t="str">
+        <f t="shared" ref="H21" si="11">IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG12_zoom</v>
       </c>
-      <c r="I21" s="74" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I21" s="90" t="str">
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="76" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),"IMG13","")</f>
-        <v>IMG13</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="73" t="str">
-        <f>IF(OR(B22&lt;&gt;[9]Ayuda!A16,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="J21" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="125"/>
+    </row>
+    <row r="22" spans="1:11" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="89" t="str">
+        <f t="shared" ref="C22" si="12">IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="14" t="str">
-        <f t="shared" si="5"/>
+      <c r="E22" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="90" t="str">
+        <f t="shared" ref="F22" si="13">IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I22="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_04_CO_IMG13_small</v>
       </c>
-      <c r="G22" s="74" t="str">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G22" s="90" t="str">
+        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H22" s="74" t="str">
-        <f>IF(I22&lt;&gt;"",IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H22" s="90" t="str">
+        <f t="shared" ref="H22" si="14">IF(I22&lt;&gt;"",IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG13_zoom</v>
       </c>
-      <c r="I22" s="74" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I22" s="90" t="str">
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),"IMG14","")</f>
-        <v>IMG14</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="73" t="str">
-        <f>IF(OR(B23&lt;&gt;[10]Ayuda!A17,J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="J22" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>CS_09_04_CO_IMG14_small</v>
+      </c>
+      <c r="G23" s="14" t="str">
+        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H23" s="14" t="str">
+        <f t="shared" ref="H23" si="15">IF(I23&lt;&gt;"",IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG14_zoom</v>
+      </c>
+      <c r="I23" s="14" t="str">
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="76" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="73" t="str">
+        <f>IF(OR(B24&lt;&gt;[7]Ayuda!A14,J24&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_09_04_CO_IMG14_small</v>
-      </c>
-      <c r="G23" s="74" t="str">
-        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H23" s="74" t="str">
-        <f>IF(I23&lt;&gt;"",IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_09_04_CO_IMG14_zoom</v>
-      </c>
-      <c r="I23" s="74" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J23" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),"IMG15","")</f>
-        <v>IMG15</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="74" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>CS_09_04_CO_IMG15_small</v>
       </c>
-      <c r="G24" s="14" t="str">
-        <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="G24" s="74" t="str">
+        <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H24" s="74" t="str">
+        <f>IF(I24&lt;&gt;"",IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE($C$7,"_",$A24,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_09_04_CO_IMG15_zoom</v>
       </c>
-      <c r="I24" s="14" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I24" s="74" t="str">
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="J24" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="75"/>
+    </row>
+    <row r="25" spans="1:11" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="73" t="str">
+        <f>IF(OR(B25&lt;&gt;[8]Ayuda!A15,J25&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G25" s="14" t="str">
-        <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I25" s="14" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+        <f t="shared" si="8"/>
+        <v>CS_09_04_CO_IMG16_small</v>
+      </c>
+      <c r="G25" s="74" t="str">
+        <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H25" s="74" t="str">
+        <f>IF(I25&lt;&gt;"",IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE($C$7,"_",$A25,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG16_zoom</v>
+      </c>
+      <c r="I25" s="74" t="str">
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="76" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="73" t="str">
+        <f>IF(OR(B26&lt;&gt;[9]Ayuda!A16,J26&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G26" s="14" t="str">
-        <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="14" t="str">
-        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+        <f t="shared" si="8"/>
+        <v>CS_09_04_CO_IMG17_small</v>
+      </c>
+      <c r="G26" s="74" t="str">
+        <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H26" s="74" t="str">
+        <f>IF(I26&lt;&gt;"",IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE($C$7,"_",$A26,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG17_zoom</v>
+      </c>
+      <c r="I26" s="74" t="str">
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="73" t="str">
+        <f>IF(OR(B27&lt;&gt;[10]Ayuda!A17,J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G27" s="14" t="str">
-        <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="14" t="str">
-        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+        <f t="shared" si="8"/>
+        <v>CS_09_04_CO_IMG18_small</v>
+      </c>
+      <c r="G27" s="74" t="str">
+        <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H27" s="74" t="str">
+        <f>IF(I27&lt;&gt;"",IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE($C$7,"_",$A27,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_04_CO_IMG18_zoom</v>
+      </c>
+      <c r="I27" s="74" t="str">
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J27" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>CS_09_04_CO_IMG19_small</v>
       </c>
       <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H28" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CS_09_04_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A29:A35" si="16">IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(LEFT(A28,3),IF(MID(A28,4,2)+1&lt;10,CONCATENATE("0",MID(A28,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B29" s="25"/>
@@ -6443,7 +6615,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -6458,12 +6630,12 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B30" s="26"/>
@@ -6471,7 +6643,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -6486,12 +6658,12 @@
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="19"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B31" s="26"/>
@@ -6499,7 +6671,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -6514,17 +6686,20 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -6543,13 +6718,16 @@
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -6568,13 +6746,16 @@
       <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -6593,13 +6774,16 @@
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -6619,12 +6803,12 @@
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -6639,17 +6823,17 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -6664,17 +6848,17 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -6689,17 +6873,17 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="15"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -6714,8 +6898,8 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="15"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
@@ -6724,7 +6908,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -6744,12 +6928,12 @@
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -6774,7 +6958,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -6789,17 +6973,17 @@
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J42" s="14"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="15"/>
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -6814,7 +6998,7 @@
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6824,7 +7008,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -6849,7 +7033,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -6874,7 +7058,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -6899,7 +7083,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -6924,7 +7108,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -6949,7 +7133,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -6974,7 +7158,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -6999,7 +7183,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -7024,7 +7208,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -7049,7 +7233,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -7074,7 +7258,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -7099,7 +7283,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -7124,7 +7308,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -7149,7 +7333,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -7174,7 +7358,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -7199,7 +7383,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -7224,7 +7408,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -7249,7 +7433,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -7274,7 +7458,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -7294,12 +7478,12 @@
     </row>
     <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -7319,12 +7503,12 @@
     </row>
     <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -7344,12 +7528,12 @@
     </row>
     <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -7369,12 +7553,12 @@
     </row>
     <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -7399,7 +7583,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -7424,7 +7608,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -7449,7 +7633,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -7474,7 +7658,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -7499,7 +7683,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -7524,7 +7708,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -7549,7 +7733,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -7574,7 +7758,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -7599,7 +7783,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -7624,7 +7808,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" ref="F76:F109" si="7">IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I76="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -7632,7 +7816,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" ref="H76:H109" si="8">IF(I76&lt;&gt;"",IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -7649,7 +7833,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -7657,7 +7841,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -7674,7 +7858,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -7682,7 +7866,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -7699,7 +7883,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -7707,7 +7891,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -7724,7 +7908,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F80:F113" si="17">IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),CONCATENATE($C$7,"_",$A80,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I80="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -7732,7 +7916,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H80:H113" si="18">IF(I80&lt;&gt;"",IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),CONCATENATE($C$7,"_",$A80,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -7749,7 +7933,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -7757,7 +7941,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -7774,7 +7958,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -7782,7 +7966,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -7799,7 +7983,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -7807,7 +7991,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -7824,7 +8008,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -7832,7 +8016,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -7849,7 +8033,7 @@
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -7857,7 +8041,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -7874,7 +8058,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -7882,7 +8066,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -7899,7 +8083,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -7907,7 +8091,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -7924,7 +8108,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -7932,7 +8116,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -7949,7 +8133,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -7957,7 +8141,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -7974,7 +8158,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -7982,7 +8166,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -7999,7 +8183,7 @@
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -8007,7 +8191,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -8024,7 +8208,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -8032,7 +8216,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -8049,7 +8233,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -8057,7 +8241,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -8074,7 +8258,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -8082,7 +8266,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -8099,7 +8283,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -8107,7 +8291,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -8124,7 +8308,7 @@
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -8132,7 +8316,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -8149,7 +8333,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -8157,7 +8341,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -8174,7 +8358,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -8182,7 +8366,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -8199,7 +8383,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -8207,7 +8391,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -8224,7 +8408,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -8232,7 +8416,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -8249,7 +8433,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -8257,7 +8441,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -8274,7 +8458,7 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -8282,7 +8466,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -8299,7 +8483,7 @@
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -8307,7 +8491,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -8324,7 +8508,7 @@
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -8332,7 +8516,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -8349,7 +8533,7 @@
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -8357,7 +8541,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -8374,7 +8558,7 @@
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -8382,7 +8566,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -8399,7 +8583,7 @@
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -8407,7 +8591,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -8424,7 +8608,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -8432,7 +8616,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
@@ -8449,7 +8633,7 @@
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G109" s="14" t="str">
@@ -8457,7 +8641,7 @@
         <v/>
       </c>
       <c r="H109" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I109" s="14" t="str">
@@ -8466,6 +8650,106 @@
       </c>
       <c r="J109" s="14"/>
       <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G110" s="14" t="str">
+        <f>IF(F110&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H110" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I110" s="14" t="str">
+        <f>IF(OR(B110&lt;&gt;"",J110&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15"/>
+    </row>
+    <row r="111" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G111" s="14" t="str">
+        <f>IF(F111&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H111" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I111" s="14" t="str">
+        <f>IF(OR(B111&lt;&gt;"",J111&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G112" s="14" t="str">
+        <f>IF(F112&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H112" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I112" s="14" t="str">
+        <f>IF(OR(B112&lt;&gt;"",J112&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
+    </row>
+    <row r="113" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G113" s="14" t="str">
+        <f>IF(F113&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H113" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I113" s="14" t="str">
+        <f>IF(OR(B113&lt;&gt;"",J113&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8507,10 +8791,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E113">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D113">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8519,19 +8803,22 @@
     <hyperlink ref="B11" display="https://www.google.com.co/search?q=ni%C3%B1os+guerra+de+los+mil+dias&amp;biw=1366&amp;bih=644&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ei=jlpBVcbyI4uhgwT2l4DoAQ&amp;ved=0CAYQ_AUoAQ&amp;dpr=1#imgrc=G35kKyY9FApMYM%253A%3BXTXOQz4vMVKdCM%3Bhttp%253A%252F%252Fwww.banrepcultural.org%252Fsite"/>
     <hyperlink ref="B12" r:id="rId2"/>
     <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6" display="http://upload.wikimedia.org/wikipedia/commons/7/73/Guerra_peru1_1932_d.jpg"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B20" display="https://www.google.com.co/search?q=mariano+ospina+perez&amp;biw=911&amp;bih=429&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ei=aIFBVeynD4bDggTEtIGoCQ&amp;ved=0CAYQ_AUoAQ&amp;dpr=1#tbs=sur:f&amp;tbm=isch&amp;q=jorge+eliecer&amp;imgrc=tt2gL2X_MKVCqM%253A%3BDLS0NOTrkvDPmM%3Bhttp%253A%252F%252Fupload.wik"/>
-    <hyperlink ref="B21" r:id="rId9"/>
-    <hyperlink ref="B23" r:id="rId10"/>
-    <hyperlink ref="B24" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12" display="http://www.bibliotecanacional.gov.co/sites/default/files/u8165/imagenes/Exposiciones_virtuales/voragine/Campa__a_en_el_Nuevo_Tiempo__Baja_ %281%29.jpg"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6" display="http://upload.wikimedia.org/wikipedia/commons/7/73/Guerra_peru1_1932_d.jpg"/>
+    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="B23" r:id="rId8"/>
+    <hyperlink ref="B25" r:id="rId9"/>
+    <hyperlink ref="B27" r:id="rId10"/>
+    <hyperlink ref="B28" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12" display="http://www.bibliotecanacional.gov.co/sites/default/files/u8165/imagenes/Exposiciones_virtuales/voragine/Campa__a_en_el_Nuevo_Tiempo__Baja_ %281%29.jpg"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B21" display="http://www.google.com.co/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;frm=1&amp;source=images&amp;cd=&amp;ved=0CAUQjhw&amp;url=http%3A%2F%2Fwww.senalmemoria.gov.co%2Farticulos%2Fpresidente-eduardo-santos-inaugura-la-radiodifusora-nacional-de-colombia&amp;ei=JSSXVaeiDoq9sAWliIGADw&amp;bvm=bv.9695298"/>
+    <hyperlink ref="B22" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId16"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8561,25 +8848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8587,11 +8874,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>19</v>
@@ -8642,11 +8929,11 @@
       <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="120" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="121"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>23</v>
@@ -8691,12 +8978,12 @@
       <c r="C7" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="106" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
       <c r="H7" s="30" t="s">
         <v>25</v>
       </c>
@@ -8790,14 +9077,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
       <c r="I13" s="30" t="s">
         <v>34</v>
       </c>
@@ -8830,12 +9117,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -8875,12 +9162,12 @@
       <c r="C17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="114" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -8896,12 +9183,12 @@
       <c r="C18" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="106" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -9292,41 +9579,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="49" t="s">
         <v>66</v>
       </c>

--- a/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/SolicitudGrafica_CS_09_04_CO.xlsx
@@ -1682,6 +1682,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,12 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -5658,9 +5658,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5698,14 +5698,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="103"/>
+      <c r="F2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="94"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
@@ -5715,14 +5715,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="104">
         <v>9</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="F3" s="95">
+      <c r="D3" s="105"/>
+      <c r="F3" s="97">
         <v>42067</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
@@ -5732,10 +5732,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>56</v>
@@ -5753,10 +5753,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -5807,12 +5807,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -6099,7 +6099,7 @@
       <c r="A16" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="89" t="str">
@@ -6295,7 +6295,7 @@
       <c r="A21" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="93" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="89" t="str">
@@ -6324,16 +6324,16 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="125" t="s">
+      <c r="J21" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="125"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="1:11" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="93" t="s">
         <v>206</v>
       </c>
       <c r="C22" s="89" t="str">
@@ -6362,10 +6362,10 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="125" t="s">
+      <c r="J22" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="125" t="s">
+      <c r="K22" s="94" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8848,25 +8848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8874,11 +8874,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>19</v>
@@ -8929,11 +8929,11 @@
       <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="120" t="str">
+      <c r="D5" s="122" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="121"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>23</v>
@@ -8978,12 +8978,12 @@
       <c r="C7" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="106" t="str">
+      <c r="D7" s="108" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="H7" s="30" t="s">
         <v>25</v>
       </c>
@@ -9077,14 +9077,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
       <c r="I13" s="30" t="s">
         <v>34</v>
       </c>
@@ -9117,12 +9117,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -9162,12 +9162,12 @@
       <c r="C17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="114" t="str">
+      <c r="D17" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -9183,12 +9183,12 @@
       <c r="C18" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="106" t="str">
+      <c r="D18" s="108" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -9579,41 +9579,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="49" t="s">
         <v>66</v>
       </c>
